--- a/Atividade 1/Atividade_Aula 1.xlsx
+++ b/Atividade 1/Atividade_Aula 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byanc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A15DA2-4B46-44F0-8DCB-46C7F8856424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444CADF-72B0-486F-9DF1-B153B8EDA8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB9B8E25-F8C1-4372-9BA7-19C9F1E6E439}"/>
   </bookViews>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1588,10 +1588,10 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="7">
-        <v>12</v>
-      </c>
-      <c r="K21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7">
+        <v>12</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1618,11 +1618,11 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="8">
         <f t="shared" si="0"/>
-        <v>23.999999999999996</v>
+        <v>12</v>
       </c>
       <c r="AA21" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1886,11 +1886,11 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12">
         <f>SUM(Z5:Z26)</f>
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AA27" s="12">
         <f>SUM(AA5:AA26)</f>
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
@@ -1986,12 +1986,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2127,15 +2124,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240CDEA6-9A45-4A72-8305-655E5BADDB3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{018715FB-D728-4A9B-808B-CE54BBAFCB93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2159,10 +2160,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{018715FB-D728-4A9B-808B-CE54BBAFCB93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240CDEA6-9A45-4A72-8305-655E5BADDB3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Atividade 1/Atividade_Aula 1.xlsx
+++ b/Atividade 1/Atividade_Aula 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byanc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444CADF-72B0-486F-9DF1-B153B8EDA8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE975D6-391F-468B-821C-3E0FDE4CF73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB9B8E25-F8C1-4372-9BA7-19C9F1E6E439}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Origem das redes para fins militares e depois nas universidades.</t>
   </si>
@@ -160,6 +160,51 @@
   </si>
   <si>
     <t>segurança e privacidade dos dados</t>
+  </si>
+  <si>
+    <t>resposta certa: internet</t>
+  </si>
+  <si>
+    <t>resposta certa: Web</t>
+  </si>
+  <si>
+    <t>resposta certa: WEB 1.0</t>
+  </si>
+  <si>
+    <t>CERTO</t>
+  </si>
+  <si>
+    <t>resposta certa: WEB 2.0</t>
+  </si>
+  <si>
+    <t>resposta certa: WEB 3.0</t>
+  </si>
+  <si>
+    <t>resposta certa: WEB 4.0</t>
+  </si>
+  <si>
+    <t>resposta certa: Internet das coisas</t>
+  </si>
+  <si>
+    <t>resposta certa: WEB</t>
+  </si>
+  <si>
+    <t>resposta certa: Cloud Computing</t>
+  </si>
+  <si>
+    <t>resposta certa: Edge Computing</t>
+  </si>
+  <si>
+    <t>resposta certa: Fog Computing</t>
+  </si>
+  <si>
+    <t>Armazenamento</t>
+  </si>
+  <si>
+    <t>Padronização</t>
+  </si>
+  <si>
+    <t>Eficiencia Energetica</t>
   </si>
 </sst>
 </file>
@@ -656,19 +701,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="85.28515625" style="14" customWidth="1"/>
     <col min="2" max="27" width="7.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
@@ -697,7 +743,7 @@
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -726,7 +772,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
     </row>
-    <row r="3" spans="1:27" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
@@ -783,7 +829,7 @@
       </c>
       <c r="AA3" s="20"/>
     </row>
-    <row r="4" spans="1:27" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -864,7 +910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -904,8 +950,11 @@
         <f>C5+E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5+Y5</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="AC5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -950,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="60.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="60.75" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -990,8 +1039,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="AC7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1031,8 +1083,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="AC8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1072,8 +1127,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="81" x14ac:dyDescent="0.35">
+      <c r="AC9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="81" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -1117,8 +1175,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="AC10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -1158,8 +1219,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="60.75" x14ac:dyDescent="0.35">
+      <c r="AC11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="60.75" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1201,8 +1265,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="60.75" x14ac:dyDescent="0.35">
+      <c r="AC12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="60.75" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
@@ -1242,8 +1309,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="81" x14ac:dyDescent="0.35">
+      <c r="AC13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="81" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -1291,8 +1361,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="60.75" x14ac:dyDescent="0.35">
+      <c r="AC14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="60.75" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -1338,8 +1411,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="81" x14ac:dyDescent="0.35">
+      <c r="AC15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="81" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1391,8 +1467,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="141.75" x14ac:dyDescent="0.35">
+      <c r="AC16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="141.75" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1440,8 +1519,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="121.5" x14ac:dyDescent="0.35">
+      <c r="AC17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="121.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1487,8 +1569,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1594,9 @@
       <c r="P19" s="7">
         <v>12</v>
       </c>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="7">
+        <v>12</v>
+      </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -1524,10 +1611,13 @@
       </c>
       <c r="AA19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="40.5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -1575,8 +1665,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -1624,8 +1717,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1665,8 +1761,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="101.25" x14ac:dyDescent="0.35">
+      <c r="AC22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="101.25" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1815,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="122.25" x14ac:dyDescent="0.35">
+      <c r="AC23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="122.25" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>39</v>
       </c>
@@ -1763,8 +1865,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" ht="121.5" x14ac:dyDescent="0.35">
+      <c r="AC24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="121.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
@@ -1812,8 +1917,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="81" x14ac:dyDescent="0.35">
+      <c r="AC25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="81" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>37</v>
       </c>
@@ -1857,8 +1965,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1890,10 +2001,10 @@
       </c>
       <c r="AA27" s="12">
         <f>SUM(AA5:AA26)</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1919,10 +2030,14 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z28" s="12">
+        <v>139</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1949,14 +2064,29 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1986,9 +2116,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2124,19 +2257,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{018715FB-D728-4A9B-808B-CE54BBAFCB93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240CDEA6-9A45-4A72-8305-655E5BADDB3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2160,9 +2289,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240CDEA6-9A45-4A72-8305-655E5BADDB3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{018715FB-D728-4A9B-808B-CE54BBAFCB93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>